--- a/Jetpack Joyride.xlsx
+++ b/Jetpack Joyride.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\DA13\SQL\app-trader-jetpack-joyride\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85AA5531-CBE3-4618-AA79-BA3A2FAB4FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBE08F3-6F77-436F-A988-703E779E8241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="1245" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="1" xr2:uid="{3449975E-7A04-4559-8115-0FEC2235C376}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{3449975E-7A04-4559-8115-0FEC2235C376}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="7" state="hidden" r:id="rId1"/>
-    <sheet name="Top 10" sheetId="1" r:id="rId2"/>
-    <sheet name="Charts" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId5"/>
-    <sheet name="Top 50" sheetId="3" state="hidden" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Top 10" sheetId="1" r:id="rId3"/>
+    <sheet name="Charts" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Top 50" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="33" r:id="rId7"/>
-    <pivotCache cacheId="43" r:id="rId8"/>
-    <pivotCache cacheId="53" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="2" r:id="rId10"/>
+    <pivotCache cacheId="3" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -65,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="156">
   <si>
     <t>name</t>
   </si>
@@ -530,6 +532,9 @@
   </si>
   <si>
     <t>Count of Name</t>
+  </si>
+  <si>
+    <t>Null</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1023,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1028,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1323,7 +1331,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3DEB-4B1A-B1E4-81C9FE451E90}"/>
+              <c16:uniqueId val="{00000000-3127-4CF7-BCDA-543C0E84AC24}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1595,8 +1603,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -1616,7 +1623,10 @@
               <a:pPr>
                 <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="bg1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1637,6 +1647,138 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent5"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1815,7 +1957,10 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="bg1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1924,7 +2069,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DBE-4B12-A9E6-10D67D1A9D4D}"/>
+              <c16:uniqueId val="{00000012-B325-42CE-8A3D-6E9E5D123144}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2067,9 +2212,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -2099,9 +2244,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2245,9 +2390,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2285,9 +2430,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2323,9 +2468,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2373,9 +2518,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2405,9 +2550,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2437,9 +2582,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2488,7 +2633,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2529,20 +2677,15 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Top 10 Applications</a:t>
+              <a:t>Top 10 Applications (Review Count)</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> (Review Count)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2566,9 +2709,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -2595,6 +2738,62 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Top 10'!$A$2:$A$11</c:f>
@@ -2679,8 +2878,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2712,9 +2912,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2752,9 +2952,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2790,9 +2990,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2840,9 +3040,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -2872,9 +3072,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -2904,9 +3104,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -2955,7 +3155,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -2996,9 +3199,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
@@ -3028,9 +3231,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -3066,9 +3269,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -3079,9 +3280,9 @@
                         <a:lumOff val="25000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -3233,9 +3434,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3273,9 +3474,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3311,9 +3512,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3361,9 +3562,9 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -3401,9 +3602,9 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -3433,9 +3634,9 @@
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -3484,7 +3685,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -3515,62 +3719,7 @@
     <c:fmtId val="9"/>
   </c:pivotSource>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Top 10 By Genre (Play Store)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
@@ -3847,9 +3996,9 @@
                   <a:solidFill>
                     <a:schemeClr val="bg1"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -4217,9 +4366,9 @@
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
@@ -4370,9 +4519,9 @@
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
@@ -4410,7 +4559,10 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4526,19 +4678,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5065,8 +5205,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -5109,6 +5248,498 @@
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
+        <c:spPr>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </c:spPr>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -5170,6 +5801,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -5212,6 +5848,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -5254,6 +5895,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -5296,6 +5942,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -5338,6 +5989,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -5380,6 +6036,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -5425,6 +6086,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -5470,6 +6136,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -5515,6 +6186,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -5560,6 +6236,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -5605,6 +6286,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -5650,6 +6336,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-8BB4-44D6-B776-6D282B4354E4}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -10546,10 +11237,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michelle" refreshedDate="45582.87230787037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="50" xr:uid="{D6F914D1-3D93-4184-AF04-7FB99FD709A8}">
   <cacheSource type="worksheet">
@@ -10802,6 +11489,78 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michelle" refreshedDate="45582.885206250001" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{02C0508C-7D06-47C6-9F70-80F991AA4815}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:L11" sheet="Top 10"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="10">
+        <s v="PewDiePie's Tuber Simulator"/>
+        <s v="Geometry Dash Lite"/>
+        <s v="Egg, Inc."/>
+        <s v="ASOS"/>
+        <s v="The Guardian"/>
+        <s v="Domino's Pizza USA"/>
+        <s v="Cytus"/>
+        <s v="The EO Bar"/>
+        <s v="Angry Birds 2"/>
+        <s v="War Robots"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="App Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.99"/>
+    </cacheField>
+    <cacheField name="Play Price" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="6.99"/>
+    </cacheField>
+    <cacheField name="Lifetime (Years)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10" maxValue="11"/>
+    </cacheField>
+    <cacheField name="App Rating" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Play Rating" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="App Genre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Play Genre" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Size" numFmtId="0">
+      <sharedItems count="9">
+        <s v="96M"/>
+        <s v="58M"/>
+        <s v="29M"/>
+        <s v="22M"/>
+        <s v="Null"/>
+        <s v="20M"/>
+        <s v="34M"/>
+        <s v="57M"/>
+        <s v="33M"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Rating" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="4.5" maxValue="4.8"/>
+    </cacheField>
+    <cacheField name="Review Count" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="247" maxValue="370370"/>
+    </cacheField>
+    <cacheField name="Revenue" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1070000" maxValue="1178000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
@@ -12357,8 +13116,153 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="9+"/>
+    <s v="Teen"/>
+    <s v="Games"/>
+    <s v="Casual"/>
+    <x v="0"/>
+    <n v="4.8"/>
+    <n v="90851"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Games"/>
+    <s v="Arcade"/>
+    <x v="1"/>
+    <n v="4.5"/>
+    <n v="370370"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Games"/>
+    <s v="Simulation"/>
+    <x v="2"/>
+    <n v="4.7"/>
+    <n v="79074"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Shopping"/>
+    <s v="Shopping"/>
+    <x v="3"/>
+    <n v="4.7"/>
+    <n v="9725"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="12+"/>
+    <s v="Teen"/>
+    <s v="News"/>
+    <s v="News &amp; Magazines"/>
+    <x v="3"/>
+    <n v="4.7"/>
+    <n v="8176"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Food &amp; Drink"/>
+    <s v="Food &amp; Drink"/>
+    <x v="4"/>
+    <n v="4.7"/>
+    <n v="258624"/>
+    <n v="1178000"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1.99"/>
+    <n v="0"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Games"/>
+    <s v="Music"/>
+    <x v="5"/>
+    <n v="4.7"/>
+    <n v="7925"/>
+    <n v="1168100"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="6.99"/>
+    <n v="6.99"/>
+    <n v="11"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Health &amp; Fitness"/>
+    <s v="Health &amp; Fitness"/>
+    <x v="6"/>
+    <n v="4.7"/>
+    <n v="247"/>
+    <n v="1118100"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <s v="4+"/>
+    <s v="Everyone"/>
+    <s v="Games"/>
+    <s v="Casual"/>
+    <x v="7"/>
+    <n v="4.5999999999999996"/>
+    <n v="109104"/>
+    <n v="1070000"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="10"/>
+    <s v="12+"/>
+    <s v="Everyone 10+"/>
+    <s v="Games"/>
+    <s v="Action"/>
+    <x v="8"/>
+    <n v="4.5999999999999996"/>
+    <n v="97122"/>
+    <n v="1070000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C7EB3B2-FD68-4F09-A8BD-3FC3F38BD28C}" name="PivotTable15" cacheId="53" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="12">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0C7EB3B2-FD68-4F09-A8BD-3FC3F38BD28C}" name="PivotTable15" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -12495,7 +13399,7 @@
   <dataFields count="1">
     <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="12">
+  <chartFormats count="21">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -12631,6 +13535,114 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="5" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="7" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -12645,7 +13657,180 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50E36E15-580B-4952-9C58-7809E703C36F}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{98AE126D-FAB8-4178-AC72-BA1DE33D52FD}" name="PivotTable5" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="10">
+        <item x="8"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="9"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="9">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" numFmtId="44" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{50E36E15-580B-4952-9C58-7809E703C36F}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField axis="axisRow" showAll="0">
@@ -13087,8 +14272,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AA29D18-0E35-4EEC-B937-71BBE1D25953}" name="PivotTable10" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8AA29D18-0E35-4EEC-B937-71BBE1D25953}" name="PivotTable10" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="11">
   <location ref="A3:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -13237,7 +14422,7 @@
   <dataFields count="1">
     <dataField name="Count of genres" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="14">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -13252,6 +14437,150 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="12">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="11"/>
           </reference>
         </references>
       </pivotArea>
@@ -13685,11 +15014,119 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870A470C-C87C-4FDA-9AD6-2B0F014E0BF8}">
+  <dimension ref="A3:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC4D068-B923-49A6-B594-CA59C91575BB}">
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13697,7 +15134,10 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="6"/>
     <col min="12" max="12" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -13729,7 +15169,7 @@
       <c r="I1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="6" t="s">
         <v>55</v>
       </c>
       <c r="K1" t="s">
@@ -13767,7 +15207,7 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="6">
         <v>4.8</v>
       </c>
       <c r="K2">
@@ -13805,7 +15245,7 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>4.5</v>
       </c>
       <c r="K3">
@@ -13843,7 +15283,7 @@
       <c r="I4" t="s">
         <v>25</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>4.7</v>
       </c>
       <c r="K4">
@@ -13881,7 +15321,7 @@
       <c r="I5" t="s">
         <v>28</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>4.7</v>
       </c>
       <c r="K5">
@@ -13919,7 +15359,7 @@
       <c r="I6" t="s">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>4.7</v>
       </c>
       <c r="K6">
@@ -13955,9 +15395,9 @@
         <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J7">
+        <v>155</v>
+      </c>
+      <c r="J7" s="6">
         <v>4.7</v>
       </c>
       <c r="K7">
@@ -13995,7 +15435,7 @@
       <c r="I8" t="s">
         <v>38</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="6">
         <v>4.7</v>
       </c>
       <c r="K8">
@@ -14033,7 +15473,7 @@
       <c r="I9" t="s">
         <v>41</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>4.7</v>
       </c>
       <c r="K9">
@@ -14071,7 +15511,7 @@
       <c r="I10" t="s">
         <v>43</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="6">
         <v>4.5999999999999996</v>
       </c>
       <c r="K10">
@@ -14109,7 +15549,7 @@
       <c r="I11" t="s">
         <v>47</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="6">
         <v>4.5999999999999996</v>
       </c>
       <c r="K11">
@@ -14127,12 +15567,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA664E42-FC3B-4B63-9215-203CE32D0F27}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14142,7 +15582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DA3B8B5-0380-4657-9C20-F93592D04C7F}">
   <dimension ref="A3:E104"/>
   <sheetViews>
@@ -15992,7 +17432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A191D351-068F-4BCD-A885-B6CC382B1416}">
   <dimension ref="A3:B15"/>
   <sheetViews>
@@ -16116,7 +17556,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2469455-8EF9-4576-8AA4-CEFEC50EC621}">
   <dimension ref="A1:U51"/>
   <sheetViews>
@@ -16172,7 +17612,7 @@
         <v>Shopping</v>
       </c>
       <c r="U1">
-        <f>COUNTIF($H$2:$H$51,T1)</f>
+        <f t="shared" ref="U1:U24" si="0">COUNTIF($H$2:$H$51,T1)</f>
         <v>1</v>
       </c>
     </row>
@@ -16217,7 +17657,7 @@
         <v>Food &amp; Drink</v>
       </c>
       <c r="U2">
-        <f>COUNTIF($H$2:$H$51,T2)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -16262,7 +17702,7 @@
         <v>Simulation</v>
       </c>
       <c r="U3">
-        <f>COUNTIF($H$2:$H$51,T3)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -16307,7 +17747,7 @@
         <v>Arcade</v>
       </c>
       <c r="U4">
-        <f>COUNTIF($H$2:$H$51,T4)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -16352,7 +17792,7 @@
         <v>Casual</v>
       </c>
       <c r="U5">
-        <f>COUNTIF($H$2:$H$51,T5)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -16397,7 +17837,7 @@
         <v>News &amp; Magazines</v>
       </c>
       <c r="U6">
-        <f>COUNTIF($H$2:$H$51,T6)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16442,7 +17882,7 @@
         <v>Music</v>
       </c>
       <c r="U7">
-        <f>COUNTIF($H$2:$H$51,T7)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16487,7 +17927,7 @@
         <v>Health &amp; Fitness</v>
       </c>
       <c r="U8">
-        <f>COUNTIF($H$2:$H$51,T8)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16532,7 +17972,7 @@
         <v>Strategy</v>
       </c>
       <c r="U9">
-        <f>COUNTIF($H$2:$H$51,T9)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -16577,7 +18017,7 @@
         <v>Photography</v>
       </c>
       <c r="U10">
-        <f>COUNTIF($H$2:$H$51,T10)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -16622,7 +18062,7 @@
         <v>Action</v>
       </c>
       <c r="U11">
-        <f>COUNTIF($H$2:$H$51,T11)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -16667,7 +18107,7 @@
         <v>Puzzle</v>
       </c>
       <c r="U12">
-        <f>COUNTIF($H$2:$H$51,T12)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -16712,7 +18152,7 @@
         <v>Role Playing</v>
       </c>
       <c r="U13">
-        <f>COUNTIF($H$2:$H$51,T13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16757,7 +18197,7 @@
         <v>Casual;Pretend Play</v>
       </c>
       <c r="U14">
-        <f>COUNTIF($H$2:$H$51,T14)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16802,7 +18242,7 @@
         <v>Racing</v>
       </c>
       <c r="U15">
-        <f>COUNTIF($H$2:$H$51,T15)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16847,7 +18287,7 @@
         <v>Books &amp; Reference</v>
       </c>
       <c r="U16">
-        <f>COUNTIF($H$2:$H$51,T16)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16892,7 +18332,7 @@
         <v>Finance</v>
       </c>
       <c r="U17">
-        <f>COUNTIF($H$2:$H$51,T17)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16937,7 +18377,7 @@
         <v>Education;Education</v>
       </c>
       <c r="U18">
-        <f>COUNTIF($H$2:$H$51,T18)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -16982,7 +18422,7 @@
         <v>Card</v>
       </c>
       <c r="U19">
-        <f>COUNTIF($H$2:$H$51,T19)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -17027,7 +18467,7 @@
         <v>Communication</v>
       </c>
       <c r="U20">
-        <f>COUNTIF($H$2:$H$51,T20)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -17072,7 +18512,7 @@
         <v>Arcade;Action &amp; Adventure</v>
       </c>
       <c r="U21">
-        <f>COUNTIF($H$2:$H$51,T21)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -17117,7 +18557,7 @@
         <v>Video Players &amp; Editors</v>
       </c>
       <c r="U22">
-        <f>COUNTIF($H$2:$H$51,T22)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -17162,7 +18602,7 @@
         <v>Sports</v>
       </c>
       <c r="U23">
-        <f>COUNTIF($H$2:$H$51,T23)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -17207,7 +18647,7 @@
         <v>Entertainment</v>
       </c>
       <c r="U24">
-        <f>COUNTIF($H$2:$H$51,T24)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -18243,12 +19683,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -18257,7 +19691,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007FFFE19D3E3505479809671C728B1F0A" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fbb0b61134543fefa2102ec078235dc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3a92a5b8-db67-4f4d-836e-28b07a16d610" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15c94653fb718992abc9fa9a923f1c11" ns3:_="">
     <xsd:import namespace="3a92a5b8-db67-4f4d-836e-28b07a16d610"/>
@@ -18407,23 +19841,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAD576BE-48AF-4E13-B526-4F9510D2A205}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3a92a5b8-db67-4f4d-836e-28b07a16d610"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37B7EA5A-072F-4D14-B368-327208AF2937}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -18431,7 +19855,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1A76ADE5-19F4-4E93-A969-1A2CAE7ACF52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18447,4 +19871,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAD576BE-48AF-4E13-B526-4F9510D2A205}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3a92a5b8-db67-4f4d-836e-28b07a16d610"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>